--- a/estimates/Hexapod_maximal_estimated_price.xlsx
+++ b/estimates/Hexapod_maximal_estimated_price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pi-nas\PiStorage\Linus\School\Hexapod_Robot_Linus\estimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\OneDrive\Desktop\Hexapod\estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B5B5E9-CD9D-4265-8640-F1A032B9D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C56B6EA-6F16-461C-ADA0-1DB25A36C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15720" xr2:uid="{270B7547-6459-4A33-B47F-01FE7366D52F}"/>
+    <workbookView xWindow="38280" yWindow="-630" windowWidth="38640" windowHeight="21120" xr2:uid="{270B7547-6459-4A33-B47F-01FE7366D52F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,8 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -151,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,30 +168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -205,9 +185,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -217,101 +195,110 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="60 % - Akzent1" xfId="3" builtinId="32"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 3" xfId="1" builtinId="18"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -322,6 +309,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C65ECC55-A2EA-4124-96E8-45CD0FFA1602}" name="Tabelle1" displayName="Tabelle1" ref="B3:E16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" headerRowCellStyle="60 % - Akzent1">
+  <autoFilter ref="B3:E16" xr:uid="{C65ECC55-A2EA-4124-96E8-45CD0FFA1602}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8F9A774C-302A-4064-9DDE-1FE60AB83FA2}" name="Items " dataDxfId="3" dataCellStyle="Überschrift 3"/>
+    <tableColumn id="2" xr3:uid="{E9765748-E873-4C04-8667-DF4C439F2697}" name="estimated price per" dataDxfId="2" dataCellStyle="Überschrift 3"/>
+    <tableColumn id="3" xr3:uid="{736D59A3-7513-4A7F-99BB-06D07224F8E0}" name="quantity" dataCellStyle="Überschrift 3"/>
+    <tableColumn id="4" xr3:uid="{C18943E4-E2D9-4671-9EA2-637A4B55C302}" name="final price" dataDxfId="1" dataCellStyle="Überschrift 3">
+      <calculatedColumnFormula>C4*D4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,237 +646,240 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E16" si="0">C4*D4</f>
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <f>C6*D6</f>
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>30</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>40</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14">
-        <f>E16+E15+E13+E14+E12+E11+E10+E9+E8+E7+E6+E5+E4</f>
+      <c r="E18" s="12">
+        <f>SUM(E4:E17)</f>
         <v>850</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>